--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>1.017019754996</v>
+        <v>0.5688615902397779</v>
       </c>
       <c r="R2">
-        <v>9.153177794964002</v>
+        <v>5.119754312158</v>
       </c>
       <c r="S2">
-        <v>0.004631890731705242</v>
+        <v>0.003258952390082391</v>
       </c>
       <c r="T2">
-        <v>0.004631890731705242</v>
+        <v>0.00325895239008239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H3">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>1.166396174813334</v>
+        <v>0.9487871040911111</v>
       </c>
       <c r="R3">
-        <v>10.49756557332</v>
+        <v>8.539083936819999</v>
       </c>
       <c r="S3">
-        <v>0.005312207167141581</v>
+        <v>0.005435508485031943</v>
       </c>
       <c r="T3">
-        <v>0.005312207167141581</v>
+        <v>0.005435508485031942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H4">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>0.1295769851413333</v>
+        <v>0.1027310375717778</v>
       </c>
       <c r="R4">
-        <v>1.166192866272</v>
+        <v>0.924579338146</v>
       </c>
       <c r="S4">
-        <v>0.0005901423581696407</v>
+        <v>0.0005885360625052418</v>
       </c>
       <c r="T4">
-        <v>0.0005901423581696407</v>
+        <v>0.0005885360625052417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2189473333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.656842</v>
+      </c>
+      <c r="I5">
+        <v>0.009402596261870986</v>
+      </c>
+      <c r="J5">
+        <v>0.009402596261870984</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.269164</v>
-      </c>
-      <c r="H5">
-        <v>0.8074920000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.01089095165781685</v>
-      </c>
-      <c r="J5">
-        <v>0.01089095165781685</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>0.07832277626133333</v>
+        <v>0.02087648226844445</v>
       </c>
       <c r="R5">
-        <v>0.7049049863520001</v>
+        <v>0.187888340416</v>
       </c>
       <c r="S5">
-        <v>0.0003567114008003906</v>
+        <v>0.0001195993242514096</v>
       </c>
       <c r="T5">
-        <v>0.0003567114008003906</v>
+        <v>0.0001195993242514096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J6">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>75.86771623940368</v>
+        <v>52.16888406035012</v>
       </c>
       <c r="R6">
-        <v>682.8094461546331</v>
+        <v>469.519956543151</v>
       </c>
       <c r="S6">
-        <v>0.3455301334695502</v>
+        <v>0.2988704323045376</v>
       </c>
       <c r="T6">
-        <v>0.3455301334695501</v>
+        <v>0.2988704323045376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J7">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>87.01090964925446</v>
+        <v>87.01090964925444</v>
       </c>
       <c r="R7">
         <v>783.09818684329</v>
       </c>
       <c r="S7">
-        <v>0.3962804301310834</v>
+        <v>0.4984769877768632</v>
       </c>
       <c r="T7">
-        <v>0.3962804301310833</v>
+        <v>0.4984769877768632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J8">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>9.666193691487111</v>
+        <v>9.421208393104113</v>
       </c>
       <c r="R8">
-        <v>86.995743223384</v>
+        <v>84.790875537937</v>
       </c>
       <c r="S8">
-        <v>0.04402348405773388</v>
+        <v>0.05397318106365619</v>
       </c>
       <c r="T8">
-        <v>0.04402348405773388</v>
+        <v>0.05397318106365619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J9">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>5.842728359293778</v>
+        <v>1.914530356305778</v>
       </c>
       <c r="R9">
-        <v>52.584555233644</v>
+        <v>17.230773206752</v>
       </c>
       <c r="S9">
-        <v>0.02660998392837577</v>
+        <v>0.01096815708358528</v>
       </c>
       <c r="T9">
-        <v>0.02660998392837577</v>
+        <v>0.01096815708358528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H10">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>15.83765831165234</v>
+        <v>7.336002319267555</v>
       </c>
       <c r="R10">
-        <v>142.538924804871</v>
+        <v>66.02402087340801</v>
       </c>
       <c r="S10">
-        <v>0.07213065664191101</v>
+        <v>0.04202723949414437</v>
       </c>
       <c r="T10">
-        <v>0.072130656641911</v>
+        <v>0.04202723949414437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H11">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>18.16383996669223</v>
+        <v>12.23549720270222</v>
       </c>
       <c r="R11">
-        <v>163.47455970023</v>
+        <v>110.11947482432</v>
       </c>
       <c r="S11">
-        <v>0.08272496338503264</v>
+        <v>0.07009596628906753</v>
       </c>
       <c r="T11">
-        <v>0.08272496338503263</v>
+        <v>0.07009596628906752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H12">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>2.017852657867556</v>
+        <v>1.324812824099556</v>
       </c>
       <c r="R12">
-        <v>18.160673920808</v>
+        <v>11.923315416896</v>
       </c>
       <c r="S12">
-        <v>0.009190060446721882</v>
+        <v>0.007589723042631867</v>
       </c>
       <c r="T12">
-        <v>0.009190060446721882</v>
+        <v>0.007589723042631866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H13">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>1.219690534380889</v>
+        <v>0.2692217667128889</v>
       </c>
       <c r="R13">
-        <v>10.977214809428</v>
+        <v>2.422995900416</v>
       </c>
       <c r="S13">
-        <v>0.005554929738576879</v>
+        <v>0.001542345159428593</v>
       </c>
       <c r="T13">
-        <v>0.005554929738576879</v>
+        <v>0.001542345159428593</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H14">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I14">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J14">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N14">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P14">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q14">
-        <v>0.6596890003270001</v>
+        <v>0.4267323651965556</v>
       </c>
       <c r="R14">
-        <v>5.937201002943</v>
+        <v>3.840591286769</v>
       </c>
       <c r="S14">
-        <v>0.00300447198927276</v>
+        <v>0.002444707966478523</v>
       </c>
       <c r="T14">
-        <v>0.00300447198927276</v>
+        <v>0.002444707966478523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H15">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I15">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J15">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
         <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P15">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q15">
-        <v>0.7565818881766667</v>
+        <v>0.7117340526122222</v>
       </c>
       <c r="R15">
-        <v>6.809236993590001</v>
+        <v>6.40560647351</v>
       </c>
       <c r="S15">
-        <v>0.003445758667328283</v>
+        <v>0.004077454747623133</v>
       </c>
       <c r="T15">
-        <v>0.003445758667328283</v>
+        <v>0.004077454747623133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H16">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I16">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J16">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N16">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O16">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P16">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q16">
-        <v>0.08405000136266666</v>
+        <v>0.07706384012255556</v>
       </c>
       <c r="R16">
-        <v>0.756450012264</v>
+        <v>0.6935745611030001</v>
       </c>
       <c r="S16">
-        <v>0.0003827953394209927</v>
+        <v>0.0004414911997318537</v>
       </c>
       <c r="T16">
-        <v>0.0003827953394209927</v>
+        <v>0.0004414911997318537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H17">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I17">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J17">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N17">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P17">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q17">
-        <v>0.05080400230266666</v>
+        <v>0.01566052412088889</v>
       </c>
       <c r="R17">
-        <v>0.457236020724</v>
+        <v>0.140944717088</v>
       </c>
       <c r="S17">
-        <v>0.0002313805471754863</v>
+        <v>8.971761038076323E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002313805471754862</v>
+        <v>8.971761038076322E-05</v>
       </c>
     </row>
   </sheetData>
